--- a/WEB_ADMIN/ExcelNuevoJugador.xlsx
+++ b/WEB_ADMIN/ExcelNuevoJugador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfl\documentos2\github\copa_frisa_capibaras_TC2007B\WEB_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F014B-F23B-42AE-A38C-833E881EA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02163E22-F4A1-4D03-AA58-2A82FB2FC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D686534-1E44-40F0-8E3C-97E3605D4FB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Username</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>yoemama</t>
+  </si>
+  <si>
+    <t>Yoe Mama</t>
+  </si>
+  <si>
+    <t>YoeMama@example.com</t>
+  </si>
+  <si>
+    <t>GoPro123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1111 Consit SS</t>
+  </si>
+  <si>
+    <t>222-1234</t>
+  </si>
+  <si>
+    <t>Yoe</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Reyes</t>
   </si>
 </sst>
 </file>
@@ -537,7 +561,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +703,42 @@
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>36560</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
@@ -687,6 +747,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{760A51E3-C1D8-4979-909F-3A110363A897}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{DDFFAD46-F0C8-41CC-9E8A-25149CC358E2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{97372063-09C2-4F66-8763-8D10A2773E75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WEB_ADMIN/ExcelNuevoJugador.xlsx
+++ b/WEB_ADMIN/ExcelNuevoJugador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfl\documentos2\github\copa_frisa_capibaras_TC2007B\WEB_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02163E22-F4A1-4D03-AA58-2A82FB2FC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5E5FF-10FC-45E0-B237-47351A263862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D686534-1E44-40F0-8E3C-97E3605D4FB1}"/>
   </bookViews>

--- a/WEB_ADMIN/ExcelNuevoJugador.xlsx
+++ b/WEB_ADMIN/ExcelNuevoJugador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfl\documentos2\github\copa_frisa_capibaras_TC2007B\WEB_ADMIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgebustamante/Documents2/code/GITHUB/copa_frisa_capibaras_TC2007B/WEB_ADMIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F014B-F23B-42AE-A38C-833E881EA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC8285-47CC-F44C-AB86-7A79DEDA4793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D686534-1E44-40F0-8E3C-97E3605D4FB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{6D686534-1E44-40F0-8E3C-97E3605D4FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Username</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>yoemama</t>
+  </si>
+  <si>
+    <t>Yoe Mama</t>
+  </si>
+  <si>
+    <t>YoeMama@example.com</t>
+  </si>
+  <si>
+    <t>GoPro123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1111 Consit SS</t>
+  </si>
+  <si>
+    <t>222-1234</t>
+  </si>
+  <si>
+    <t>Yoe</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Reyes</t>
   </si>
 </sst>
 </file>
@@ -201,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -218,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,22 +561,22 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -634,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -675,18 +699,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>36560</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{760A51E3-C1D8-4979-909F-3A110363A897}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{DDFFAD46-F0C8-41CC-9E8A-25149CC358E2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{97372063-09C2-4F66-8763-8D10A2773E75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WEB_ADMIN/ExcelNuevoJugador.xlsx
+++ b/WEB_ADMIN/ExcelNuevoJugador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfl\documentos2\github\copa_frisa_capibaras_TC2007B\WEB_ADMIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgebustamante/Documents2/code/GITHUB/copa_frisa_capibaras_TC2007B/WEB_ADMIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5E5FF-10FC-45E0-B237-47351A263862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8612C-2DE2-6245-AEA6-3339BB20D93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D686534-1E44-40F0-8E3C-97E3605D4FB1}"/>
+    <workbookView xWindow="-33600" yWindow="15740" windowWidth="33600" windowHeight="21000" xr2:uid="{6D686534-1E44-40F0-8E3C-97E3605D4FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Nombre Display</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento</t>
   </si>
   <si>
@@ -77,18 +71,12 @@
     <t>ID Equipo</t>
   </si>
   <si>
-    <t>johndoe</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
     <t>johndoe@example.com</t>
   </si>
   <si>
-    <t>password123</t>
-  </si>
-  <si>
     <t>ABCD123456HDEFLL09</t>
   </si>
   <si>
@@ -107,18 +95,12 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>TilinReal</t>
-  </si>
-  <si>
     <t>Tilin Kurosaki</t>
   </si>
   <si>
     <t>ElTilinReal@example.com</t>
   </si>
   <si>
-    <t>papupro123</t>
-  </si>
-  <si>
     <t>5738 Prons Tu</t>
   </si>
   <si>
@@ -134,16 +116,10 @@
     <t>Youth</t>
   </si>
   <si>
-    <t>yoemama</t>
-  </si>
-  <si>
     <t>Yoe Mama</t>
   </si>
   <si>
     <t>YoeMama@example.com</t>
-  </si>
-  <si>
-    <t>GoPro123</t>
   </si>
   <si>
     <t xml:space="preserve"> 1111 Consit SS</t>
@@ -225,7 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -242,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -558,25 +534,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C993C4-D560-4951-939B-A74C15ABD93B}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -610,144 +588,120 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="3">
+        <v>36526</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36562</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
-        <v>36526</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1">
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
         <v>1234567890</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
+      <c r="K3" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3">
-        <v>36562</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C4" s="3">
+        <v>36560</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1">
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1">
         <v>1234567890</v>
       </c>
-      <c r="M3" s="1">
-        <v>2</v>
+      <c r="K4" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3">
-        <v>36560</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{760A51E3-C1D8-4979-909F-3A110363A897}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DDFFAD46-F0C8-41CC-9E8A-25149CC358E2}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{97372063-09C2-4F66-8763-8D10A2773E75}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{97372063-09C2-4F66-8763-8D10A2773E75}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DDFFAD46-F0C8-41CC-9E8A-25149CC358E2}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{760A51E3-C1D8-4979-909F-3A110363A897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
